--- a/issue tracking-2018-4-20.xlsx
+++ b/issue tracking-2018-4-20.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\fudan\code\CM-master\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{978A4CA4-4A4C-43A5-B853-4C0F60523D3A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24180" windowHeight="13050" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2018-3-15-1" sheetId="1" r:id="rId1"/>
@@ -28,14 +22,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2018-3-15-1'!$A$1:$F$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018-3-15-2'!$A$1:$H$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2018-4-4'!$A$1:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'2018-4-8'!$A$1:$G$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'2018-4-8'!$A$1:$G$10</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>序号</t>
   </si>
@@ -108,7 +102,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>课程信息页面中，编辑课程信息时，如果更改课程代码，</t>
     </r>
@@ -117,7 +111,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>我们昨天商量怎么操作来着？？</t>
     </r>
@@ -126,7 +120,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>是不是直接提示错误信息并返回，禁止这个操作。更改课程代码的操作请通过添加课程并删除原记录完成。</t>
     </r>
@@ -135,7 +129,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>我忘记了。</t>
     </r>
@@ -414,6 +408,12 @@
   </si>
   <si>
     <t>教务员页面中，导入和编辑教师信息（修改期望学时）之后强制刷新</t>
+  </si>
+  <si>
+    <t>re-open</t>
+  </si>
+  <si>
+    <t>导入之后强制刷新了，但是编辑教师信息之后没有强制刷新</t>
   </si>
   <si>
     <t>编辑课程信息，编辑成功，注意要重新画所有相关的内容，例如所有拥有同样课程代码的数据条；不然的话就自动F5。</t>
@@ -445,10 +445,10 @@
     <t>负责不同学位课程的教务员之前设置权限，比方说负责本科的教务员老师不可以更改硕士课程。</t>
   </si>
   <si>
+    <t>hold</t>
+  </si>
+  <si>
     <t>当教师期望学时为0时，视作这个老师not available，不应该安排任何课程给他。此处无法用删除这个老师代替，因为假设一个老师第一学期出国，第二学期回来上课，我们就会把第一学期设成0，第二学期正常。所以第一学期不可以排课给他，而且也不可以把这个老师信息管理表里删掉。当然替代方法是从可选教师列表里移除。</t>
-  </si>
-  <si>
-    <t>hold</t>
   </si>
   <si>
     <t>老的copy过来的问题。</t>
@@ -499,47 +499,44 @@
 教师个人页面: 我个人认为没有显示的必要, 所以照旧.</t>
   </si>
   <si>
-    <t>re-open</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入之后强制刷新了，但是编辑教师信息之后没有强制刷新</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>hold</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>现在导入的逻辑是什么？如果遇到导入一门课程，它的课程代码在原来数据库里已经存在，是不是会把原来的那条课程记录完全替换成新的导入文件里的内容？但是我发现原来的双代码备注并没有被新导入内容替换。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>open</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>closed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在的全部重新更新. 双代码没有更新是我漏了这个字段</t>
   </si>
   <si>
     <t>现在的教师信息管理教务员页面中，排课分配好之后，已分配学时，已分配难度的排序好像有点问题，不是完全按照升序或降序排列。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个因为有些数据是None表格排序区分又问题, 我现在如果是None会默认填个0 这样就可以了</t>
   </si>
   <si>
     <t>确认微调结束之前，步骤四的结果导出不可用</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出所有的排课结果</t>
   </si>
   <si>
     <t>教师工号中会含有字母，需要改成字符串格式。注意相应其他逻辑的修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时未发现问题</t>
+  </si>
+  <si>
+    <t>改了</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,8 +553,159 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,42 +718,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -615,12 +748,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -628,13 +941,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -644,7 +1199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -653,52 +1208,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -714,19 +1307,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -764,19 +1351,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1054,12 +1635,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1069,7 +1649,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
@@ -1080,7 +1660,7 @@
     <col min="8" max="8" width="59" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1116,7 +1696,7 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4">
@@ -1130,7 +1710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1140,7 +1720,7 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4">
@@ -1153,7 +1733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1163,7 +1743,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4">
@@ -1173,7 +1753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1183,7 +1763,7 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4">
@@ -1196,7 +1776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" ht="42.75" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1206,7 +1786,7 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="4">
@@ -1219,7 +1799,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="28.5" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1229,7 +1809,7 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4">
@@ -1239,7 +1819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1249,7 +1829,7 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4">
@@ -1262,14 +1842,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="28.5" spans="2:8">
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="4">
@@ -1282,7 +1862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="10" ht="99.75" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1292,7 +1872,7 @@
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4">
@@ -1308,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="28.5" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1318,7 +1898,7 @@
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4">
@@ -1328,7 +1908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="28.5" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1338,7 +1918,7 @@
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4">
@@ -1351,7 +1931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="13" ht="42.75" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1361,7 +1941,7 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="4">
@@ -1377,7 +1957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="28.5" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1387,7 +1967,7 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="4">
@@ -1400,7 +1980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="28.5" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1410,7 +1990,7 @@
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="4">
@@ -1420,7 +2000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" ht="42.75" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1430,7 +2010,7 @@
       <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="4">
@@ -1440,7 +2020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="28.5" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1450,7 +2030,7 @@
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="4">
@@ -1460,7 +2040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" ht="42.75" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1470,7 +2050,7 @@
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="4">
@@ -1481,39 +2061,42 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:F19">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD73B773-F7B7-455C-8637-B80AF43790D3}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="111.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="53.875" customWidth="1"/>
+    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="7" max="7" width="111.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1529,7 +2112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" ht="57" spans="1:7">
       <c r="A2">
         <v>75</v>
       </c>
@@ -1537,75 +2120,111 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="4">
         <v>43208</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" spans="1:7">
       <c r="A3">
         <v>76</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>136</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="4">
         <v>43208</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>77</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>136</v>
+      <c r="C4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="4">
         <v>43208</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:7">
       <c r="A5">
         <v>78</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>136</v>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="4">
         <v>43210</v>
       </c>
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:7">
+      <c r="A6">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43197</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="7" t="s">
+        <v>142</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1615,7 +2234,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="1" customWidth="1"/>
@@ -1628,7 +2247,7 @@
     <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1654,7 +2273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>19</v>
       </c>
@@ -1664,13 +2283,13 @@
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="12">
         <v>43174</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1678,7 +2297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:8">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -1688,18 +2307,18 @@
       <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="12">
         <v>43174</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="12"/>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" ht="42.75" spans="1:9">
       <c r="A4" s="1">
         <v>21</v>
       </c>
@@ -1709,10 +2328,10 @@
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="12">
         <v>43174</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -1722,7 +2341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" ht="42.75" spans="1:8">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -1732,10 +2351,10 @@
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="12">
         <v>43174</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1745,7 +2364,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" ht="71.25" spans="1:9">
       <c r="A6" s="1">
         <v>23</v>
       </c>
@@ -1755,10 +2374,10 @@
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12">
         <v>43174</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1768,7 +2387,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="28.5" spans="1:8">
       <c r="A7" s="1">
         <v>24</v>
       </c>
@@ -1778,10 +2397,10 @@
       <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="12">
         <v>43174</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1791,7 +2410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" ht="57" spans="1:8">
       <c r="A8" s="1">
         <v>24</v>
       </c>
@@ -1801,17 +2420,17 @@
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12">
         <v>43174</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="85.5" spans="1:8">
       <c r="A9" s="1">
         <v>25</v>
       </c>
@@ -1821,10 +2440,10 @@
       <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="12">
         <v>43174</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1835,14 +2454,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H9" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:H9">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1852,7 +2473,7 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
@@ -1861,7 +2482,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +2502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" ht="42.75" spans="1:7">
       <c r="A2">
         <v>26</v>
       </c>
@@ -1891,7 +2512,7 @@
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4">
@@ -1902,7 +2523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="28.5" spans="1:7">
       <c r="A3">
         <v>27</v>
       </c>
@@ -1912,7 +2533,7 @@
       <c r="C3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4">
@@ -1923,13 +2544,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -1939,7 +2560,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -1949,7 +2570,7 @@
     <col min="7" max="7" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +2590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>28</v>
       </c>
@@ -1979,7 +2600,7 @@
       <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4">
@@ -1990,7 +2611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="28.5" spans="1:7">
       <c r="A3">
         <v>29</v>
       </c>
@@ -2000,7 +2621,7 @@
       <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4">
@@ -2010,7 +2631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="28.5" spans="1:7">
       <c r="A4">
         <v>30</v>
       </c>
@@ -2020,7 +2641,7 @@
       <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4">
@@ -2033,7 +2654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>31</v>
       </c>
@@ -2043,7 +2664,7 @@
       <c r="C5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4">
@@ -2053,7 +2674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" ht="42.75" spans="1:6">
       <c r="A6">
         <v>32</v>
       </c>
@@ -2063,7 +2684,7 @@
       <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="4">
@@ -2073,7 +2694,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>33</v>
       </c>
@@ -2083,7 +2704,7 @@
       <c r="C7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4">
@@ -2093,7 +2714,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>34</v>
       </c>
@@ -2103,7 +2724,7 @@
       <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4">
@@ -2113,7 +2734,7 @@
         <v>43180</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="28.5" spans="1:6">
       <c r="A9">
         <v>35</v>
       </c>
@@ -2123,7 +2744,7 @@
       <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="4">
@@ -2133,7 +2754,7 @@
         <v>43180</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="28.5" spans="1:7">
       <c r="A10">
         <v>36</v>
       </c>
@@ -2143,7 +2764,7 @@
       <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4">
@@ -2153,7 +2774,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>37</v>
       </c>
@@ -2163,7 +2784,7 @@
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4">
@@ -2174,13 +2795,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -2190,7 +2811,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
@@ -2200,7 +2821,7 @@
     <col min="7" max="7" width="44.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2219,11 +2840,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" ht="42.75" spans="1:7">
       <c r="A2">
         <v>38</v>
       </c>
@@ -2233,7 +2854,7 @@
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4">
@@ -2243,7 +2864,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="28.5" spans="1:6">
       <c r="A3">
         <v>39</v>
       </c>
@@ -2253,7 +2874,7 @@
       <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4">
@@ -2263,7 +2884,7 @@
         <v>43180</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>40</v>
       </c>
@@ -2273,7 +2894,7 @@
       <c r="C4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4">
@@ -2283,7 +2904,7 @@
         <v>43180</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>41</v>
       </c>
@@ -2293,7 +2914,7 @@
       <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4">
@@ -2304,14 +2925,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -2321,7 +2942,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="7.125" customWidth="1"/>
@@ -2332,7 +2953,7 @@
     <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" ht="42.75" spans="1:7">
       <c r="A2">
         <v>42</v>
       </c>
@@ -2365,7 +2986,7 @@
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4">
@@ -2375,7 +2996,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="3" ht="85.5" spans="1:7">
       <c r="A3">
         <v>43</v>
       </c>
@@ -2385,7 +3006,7 @@
       <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4">
@@ -2398,7 +3019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="4" ht="57" spans="1:7">
       <c r="A4">
         <v>44</v>
       </c>
@@ -2408,7 +3029,7 @@
       <c r="C4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4">
@@ -2421,7 +3042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="85.5" spans="1:7">
       <c r="A5">
         <v>46</v>
       </c>
@@ -2431,7 +3052,7 @@
       <c r="C5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4">
@@ -2444,7 +3065,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" ht="71.25" spans="1:7">
       <c r="A6">
         <v>47</v>
       </c>
@@ -2454,7 +3075,7 @@
       <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="4">
@@ -2467,7 +3088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" ht="57" spans="1:7">
       <c r="A7">
         <v>48</v>
       </c>
@@ -2477,7 +3098,7 @@
       <c r="C7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4">
@@ -2491,13 +3112,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -2507,7 +3128,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -2517,7 +3138,7 @@
     <col min="7" max="7" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +3161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" ht="57" spans="1:7">
       <c r="A2">
         <v>49</v>
       </c>
@@ -2550,7 +3171,7 @@
       <c r="C2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4">
@@ -2563,7 +3184,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="3" ht="57" spans="1:7">
       <c r="A3">
         <v>50</v>
       </c>
@@ -2573,7 +3194,7 @@
       <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4">
@@ -2586,7 +3207,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="28.5" spans="1:6">
       <c r="A4">
         <v>51</v>
       </c>
@@ -2596,7 +3217,7 @@
       <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="4">
@@ -2606,7 +3227,7 @@
         <v>43183</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:7">
       <c r="A5">
         <v>52</v>
       </c>
@@ -2616,7 +3237,7 @@
       <c r="C5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="4">
@@ -2630,23 +3251,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A13" sqref="$A13:$XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -2657,7 +3278,7 @@
     <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2680,7 +3301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" ht="28.5" spans="1:7">
       <c r="A2">
         <v>65</v>
       </c>
@@ -2703,7 +3324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" ht="42.75" spans="1:7">
       <c r="A3">
         <v>57</v>
       </c>
@@ -2723,7 +3344,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" ht="28.5" spans="1:5">
       <c r="A4">
         <v>64</v>
       </c>
@@ -2740,7 +3361,7 @@
         <v>43197</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:7">
       <c r="A5">
         <v>60</v>
       </c>
@@ -2760,7 +3381,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>53</v>
       </c>
@@ -2776,11 +3397,11 @@
       <c r="E6" s="4">
         <v>43194</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" ht="28.5" spans="1:7">
       <c r="A7">
         <v>67</v>
       </c>
@@ -2800,7 +3421,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>66</v>
       </c>
@@ -2818,7 +3439,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" ht="28.5" spans="1:5">
       <c r="A9">
         <v>63</v>
       </c>
@@ -2835,7 +3456,7 @@
         <v>43197</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>54</v>
       </c>
@@ -2845,14 +3466,14 @@
       <c r="C10" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4">
         <v>43194</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" ht="28.5" spans="1:7">
       <c r="A11">
         <v>62</v>
       </c>
@@ -2862,7 +3483,7 @@
       <c r="C11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4">
@@ -2872,24 +3493,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>55</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4">
         <v>43194</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>59</v>
       </c>
@@ -2899,17 +3520,17 @@
       <c r="C13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>132</v>
+      <c r="D13" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="E13" s="4">
         <v>43197</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G13" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:7">
       <c r="A14">
         <v>58</v>
       </c>
@@ -2917,19 +3538,19 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="4">
         <v>43197</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:5">
       <c r="A15">
         <v>56</v>
       </c>
@@ -2937,7 +3558,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>9</v>
@@ -2946,7 +3567,7 @@
         <v>43194</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>7</v>
       </c>
@@ -2954,10 +3575,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>134</v>
+        <v>116</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="E16" s="4">
         <v>43173</v>
@@ -2965,23 +3586,26 @@
       <c r="G16" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <autoFilter ref="A1:G16">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -2992,7 +3616,7 @@
     <col min="7" max="7" width="202.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" ht="71.25" spans="1:7">
       <c r="A2">
         <v>45</v>
       </c>
@@ -3023,47 +3647,47 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4">
         <v>43180</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="G2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" ht="57" spans="1:7">
       <c r="A3">
         <v>68</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>118</v>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E3" s="4">
         <v>43198</v>
       </c>
       <c r="G3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:5">
       <c r="A4">
         <v>69</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>120</v>
+      <c r="C4" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
@@ -3072,15 +3696,15 @@
         <v>43198</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" ht="28.5" spans="1:5">
       <c r="A5">
         <v>70</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>121</v>
+      <c r="C5" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>9</v>
@@ -3089,67 +3713,67 @@
         <v>43198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:7">
       <c r="A6">
         <v>71</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>137</v>
+      <c r="C6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="E6" s="4">
         <v>43198</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75" spans="1:7">
       <c r="A7">
         <v>72</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="4">
         <v>43198</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>73</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="4">
         <v>43198</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" ht="99.75" spans="1:7">
       <c r="A9">
         <v>61</v>
       </c>
@@ -3157,19 +3781,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="4">
         <v>43197</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" ht="42.75" spans="1:7">
       <c r="A10">
         <v>74</v>
       </c>
@@ -3177,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>9</v>
@@ -3185,13 +3809,15 @@
       <c r="E10" s="4">
         <v>43199</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>131</v>
+      <c r="G10" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G9" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:G10">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/issue tracking-2018-4-20.xlsx
+++ b/issue tracking-2018-4-20.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="24180" windowHeight="13050" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="2018-3-15-1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="2018-4-4" sheetId="8" r:id="rId8"/>
     <sheet name="2018-4-8" sheetId="9" r:id="rId9"/>
     <sheet name="2018-4-18" sheetId="10" r:id="rId10"/>
+    <sheet name="2018-4-25" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2018-3-15-1'!$A$1:$F$19</definedName>
@@ -24,12 +25,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2018-4-4'!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'2018-4-8'!$A$1:$G$10</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151">
   <si>
     <t>序号</t>
   </si>
@@ -525,18 +526,62 @@
   <si>
     <t>改了</t>
   </si>
+  <si>
+    <t>难度789的强制申报要求改成2</t>
+  </si>
+  <si>
+    <t>home页面的登陆应该是登录</t>
+  </si>
+  <si>
+    <r>
+      <t>"法律硕士（法学）国际班"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"法律硕士（非法学）国际班" 新加的班级</t>
+    </r>
+  </si>
+  <si>
+    <t>步骤二有时候无法从确认课程信息跳转到课程信息已确认</t>
+  </si>
+  <si>
+    <t>如果因为异常导致课程信息按钮状态位出现异常, 现在将保证不会卡在无法确认课程信息</t>
+  </si>
+  <si>
+    <t>我有两个班级上同一门课，但是出现一个情况是这门课的课程代码要改。我改第一个班级的记录的时候可以用编辑课程信息直接改掉这门课的课程代码。显示成功，也确实能改成功。当我改第二条班级记录的时候，显示成功，但是事实的没有改成功。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>9999账号登录，会发现，没有人申报的课程，9999这里显示已经申报。这是一个corner case，给所有账号填写名字，应该就可以避免。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,6 +597,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -565,11 +616,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,32 +631,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,51 +662,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,10 +692,34 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -707,6 +728,42 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCC7832"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -748,7 +805,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +847,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,7 +901,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,97 +967,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,49 +979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,15 +996,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -965,8 +1013,53 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,17 +1079,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,38 +1091,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,10 +1104,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1059,137 +1116,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,21 +1256,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1223,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1696,13 +1762,13 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
         <v>43173</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1720,13 +1786,13 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
         <v>43173</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>43174</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1743,10 +1809,10 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
         <v>43174</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1763,10 +1829,10 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
         <v>43174</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1786,10 +1852,10 @@
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
         <v>43174</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1809,10 +1875,10 @@
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
         <v>43174</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1829,10 +1895,10 @@
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
         <v>43173</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1849,10 +1915,10 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
         <v>43173</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1872,10 +1938,10 @@
       <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
         <v>43173</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1898,10 +1964,10 @@
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5">
         <v>43173</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1918,10 +1984,10 @@
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
         <v>43173</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1941,10 +2007,10 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
         <v>43173</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1967,10 +2033,10 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5">
         <v>43173</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -1990,10 +2056,10 @@
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5">
         <v>43174</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -2010,10 +2076,10 @@
       <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4">
+      <c r="D16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5">
         <v>43174</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -2030,10 +2096,10 @@
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5">
         <v>43174</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -2050,10 +2116,10 @@
       <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5">
         <v>43174</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -2075,7 +2141,7 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -2122,10 +2188,10 @@
       <c r="C2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
         <v>43208</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2139,13 +2205,13 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
         <v>43208</v>
       </c>
       <c r="G3" t="s">
@@ -2159,13 +2225,13 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
         <v>43208</v>
       </c>
       <c r="G4" t="s">
@@ -2179,13 +2245,13 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
         <v>43210</v>
       </c>
       <c r="G5" t="s">
@@ -2202,20 +2268,176 @@
       <c r="C6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
         <v>43197</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="10" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>142</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="53.875" customWidth="1"/>
+    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="7" max="7" width="111.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43215</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>80</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43215</v>
+      </c>
+      <c r="G5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" ht="57" spans="1:7">
+      <c r="A6">
+        <v>83</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43215</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" ht="42.75" spans="1:7">
+      <c r="A7">
+        <v>84</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43215</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2283,13 +2505,13 @@
       <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="15">
         <v>43174</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
@@ -2307,13 +2529,13 @@
       <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="15">
         <v>43174</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="15"/>
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
@@ -2328,10 +2550,10 @@
       <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="15">
         <v>43174</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2351,10 +2573,10 @@
       <c r="C5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="15">
         <v>43174</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2374,10 +2596,10 @@
       <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="15">
         <v>43174</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2397,10 +2619,10 @@
       <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="15">
         <v>43174</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2420,10 +2642,10 @@
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="15">
         <v>43174</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2440,10 +2662,10 @@
       <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15">
         <v>43174</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -2512,13 +2734,13 @@
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
         <v>43175</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
       <c r="G2" t="s">
         <v>55</v>
       </c>
@@ -2533,10 +2755,10 @@
       <c r="C3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
         <v>43175</v>
       </c>
       <c r="G3" t="s">
@@ -2600,13 +2822,13 @@
       <c r="C2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
         <v>43177</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5"/>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -2621,10 +2843,10 @@
       <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
         <v>43177</v>
       </c>
       <c r="G3" t="s">
@@ -2641,13 +2863,13 @@
       <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
         <v>43177</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>43178</v>
       </c>
       <c r="G4" t="s">
@@ -2664,10 +2886,10 @@
       <c r="C5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
         <v>43177</v>
       </c>
       <c r="G5" t="s">
@@ -2684,13 +2906,13 @@
       <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
         <v>43177</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>43179</v>
       </c>
     </row>
@@ -2704,10 +2926,10 @@
       <c r="C7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
         <v>43177</v>
       </c>
       <c r="G7" t="s">
@@ -2724,13 +2946,13 @@
       <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
         <v>43177</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>43180</v>
       </c>
     </row>
@@ -2744,13 +2966,13 @@
       <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
         <v>43177</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>43180</v>
       </c>
     </row>
@@ -2764,10 +2986,10 @@
       <c r="C10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
         <v>43177</v>
       </c>
       <c r="G10" t="s">
@@ -2784,13 +3006,13 @@
       <c r="C11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5">
         <v>43177</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>43180</v>
       </c>
     </row>
@@ -2840,7 +3062,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2854,10 +3076,10 @@
       <c r="C2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
         <v>43179</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2874,13 +3096,13 @@
       <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
         <v>43179</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>43180</v>
       </c>
     </row>
@@ -2894,13 +3116,13 @@
       <c r="C4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
         <v>43179</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>43180</v>
       </c>
     </row>
@@ -2914,13 +3136,13 @@
       <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
         <v>43179</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>43180</v>
       </c>
     </row>
@@ -2986,10 +3208,10 @@
       <c r="C2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
         <v>43180</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -3006,13 +3228,13 @@
       <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
         <v>43180</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>43180</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -3029,13 +3251,13 @@
       <c r="C4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
         <v>43180</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>43180</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -3052,13 +3274,13 @@
       <c r="C5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
         <v>43180</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>43180</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -3075,13 +3297,13 @@
       <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
         <v>43180</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>43180</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -3098,13 +3320,13 @@
       <c r="C7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
         <v>43180</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>43180</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -3171,13 +3393,13 @@
       <c r="C2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
         <v>43182</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>43183</v>
       </c>
       <c r="G2" t="s">
@@ -3194,13 +3416,13 @@
       <c r="C3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
         <v>43182</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>43183</v>
       </c>
       <c r="G3" t="s">
@@ -3217,13 +3439,13 @@
       <c r="C4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
         <v>43182</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>43183</v>
       </c>
     </row>
@@ -3237,13 +3459,13 @@
       <c r="C5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
         <v>43182</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>43183</v>
       </c>
       <c r="G5" t="s">
@@ -3311,13 +3533,13 @@
       <c r="C2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5">
         <v>43197</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>43197</v>
       </c>
       <c r="G2" t="s">
@@ -3334,10 +3556,10 @@
       <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5">
         <v>43197</v>
       </c>
       <c r="G3" t="s">
@@ -3354,10 +3576,10 @@
       <c r="C4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
         <v>43197</v>
       </c>
     </row>
@@ -3371,10 +3593,10 @@
       <c r="C5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
         <v>43197</v>
       </c>
       <c r="G5" t="s">
@@ -3391,13 +3613,13 @@
       <c r="C6" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
         <v>43194</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3411,10 +3633,10 @@
       <c r="C7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
         <v>43197</v>
       </c>
       <c r="G7" t="s">
@@ -3431,10 +3653,10 @@
       <c r="C8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
         <v>43197</v>
       </c>
       <c r="H8" s="1"/>
@@ -3449,10 +3671,10 @@
       <c r="C9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
         <v>43197</v>
       </c>
     </row>
@@ -3466,10 +3688,10 @@
       <c r="C10" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
         <v>43194</v>
       </c>
     </row>
@@ -3483,10 +3705,10 @@
       <c r="C11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5">
         <v>43197</v>
       </c>
       <c r="G11" t="s">
@@ -3500,13 +3722,13 @@
       <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
         <v>43194</v>
       </c>
     </row>
@@ -3520,13 +3742,13 @@
       <c r="C13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>43197</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="10" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3540,10 +3762,10 @@
       <c r="C14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5">
         <v>43197</v>
       </c>
       <c r="G14" t="s">
@@ -3560,10 +3782,10 @@
       <c r="C15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="D15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5">
         <v>43194</v>
       </c>
     </row>
@@ -3577,10 +3799,10 @@
       <c r="C16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>43173</v>
       </c>
       <c r="G16" s="1"/>
@@ -3649,10 +3871,10 @@
       <c r="C2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>43180</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -3672,7 +3894,7 @@
       <c r="D3" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>43198</v>
       </c>
       <c r="G3" t="s">
@@ -3689,10 +3911,10 @@
       <c r="C4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5">
         <v>43198</v>
       </c>
     </row>
@@ -3706,10 +3928,10 @@
       <c r="C5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5">
         <v>43198</v>
       </c>
     </row>
@@ -3723,10 +3945,10 @@
       <c r="C6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
         <v>43198</v>
       </c>
       <c r="G6" t="s">
@@ -3743,10 +3965,10 @@
       <c r="C7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
         <v>43198</v>
       </c>
       <c r="G7" t="s">
@@ -3763,10 +3985,10 @@
       <c r="C8" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
         <v>43198</v>
       </c>
       <c r="G8" t="s">
@@ -3783,10 +4005,10 @@
       <c r="C9" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
         <v>43197</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -3803,10 +4025,10 @@
       <c r="C10" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
         <v>43199</v>
       </c>
       <c r="G10" s="1" t="s">

--- a/issue tracking-2018-4-20.xlsx
+++ b/issue tracking-2018-4-20.xlsx
@@ -565,7 +565,22 @@
     <t>我有两个班级上同一门课，但是出现一个情况是这门课的课程代码要改。我改第一个班级的记录的时候可以用编辑课程信息直接改掉这门课的课程代码。显示成功，也确实能改成功。当我改第二条班级记录的时候，显示成功，但是事实的没有改成功。</t>
   </si>
   <si>
-    <t>open</t>
+    <r>
+      <t xml:space="preserve">这个操作进入一个分支, 被认为第二次改动是在已有课程(此时新的课程代码已经有了一条记录)下, 
+改动班级信息, 所以会将本次编辑的班级先加入到课程班级当中, 并且删除旧的课程信息(等于是添加了一次, 又删除了一次, 导致外部看来没有任何操作生效). 
+我已经增加代码判断如果并且更改顺序(先判断旧课程信息在不在课程代码信息中, 如果存在才会删除, 然后才是添加新的班级)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但是这样我发现一个问题, 旧的课程代码将需要手动删除, 因为编辑界面并没有设计过可以删除课程的过程. 所以需要手动删除旧课程代码所在行</t>
+    </r>
   </si>
   <si>
     <t>9999账号登录，会发现，没有人申报的课程，9999这里显示已经申报。这是一个corner case，给所有账号填写名字，应该就可以避免。</t>
@@ -1268,8 +1283,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -2294,18 +2309,19 @@
   <sheetPr/>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="7.125" customWidth="1"/>
-    <col min="3" max="3" width="53.875" customWidth="1"/>
-    <col min="4" max="4" width="5.25" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="7" max="7" width="111.5" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="53.625" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="9.875" customWidth="1"/>
+    <col min="6" max="6" width="8.875" customWidth="1"/>
+    <col min="7" max="7" width="255.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2414,12 +2430,14 @@
         <v>148</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="E6" s="5">
         <v>43215</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" ht="42.75" spans="1:7">
       <c r="A7">
